--- a/data/suites/exampletestsuite_amazonsuite.xlsx
+++ b/data/suites/exampletestsuite_amazonsuite.xlsx
@@ -1,27 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F788C474-2C66-439B-84A5-E4891EF24611}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
     <sheet name="Keywords" sheetId="2" r:id="rId2"/>
     <sheet name="TestData" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="30">
   <si>
     <t>TCID</t>
   </si>
@@ -77,22 +83,46 @@
     <t>Data2</t>
   </si>
   <si>
+    <t>Windows</t>
+  </si>
+  <si>
     <t>Chrome</t>
   </si>
   <si>
-    <t>Mozilla</t>
-  </si>
-  <si>
-    <t>Windows</t>
-  </si>
-  <si>
-    <t>Linux</t>
+    <t>Calc_Test</t>
+  </si>
+  <si>
+    <t>urlMicrosoftSupport</t>
+  </si>
+  <si>
+    <t>ObjectLocator</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>SelectKey</t>
+  </si>
+  <si>
+    <t>EnterSelectData</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S9</t>
+  </si>
+  <si>
+    <t>Data1</t>
+  </si>
+  <si>
+    <t>verifyCalc</t>
+  </si>
+  <si>
+    <t>CalculatedValue</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -142,12 +172,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -177,7 +214,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -455,20 +492,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.86328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -479,14 +517,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -496,25 +545,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.86328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.26953125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -530,14 +579,14 @@
       <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -547,14 +596,8 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -568,7 +611,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -578,8 +621,41 @@
       <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" t="s">
-        <v>14</v>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -588,22 +664,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.53125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.1796875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -611,7 +690,7 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -624,22 +703,37 @@
       <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -647,51 +741,94 @@
         <v>19</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8">
+        <v>12</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <f>E8*F8</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C9" s="4"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C10" s="4"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C13" s="4"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C15" s="4"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C5 C8:C15" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Windows, Linux, Mac"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"Chrome, Mozilla, IE, Edge"</formula1>
     </dataValidation>
   </dataValidations>
